--- a/Scheda.xlsx
+++ b/Scheda.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Matlab works\ProgettoElettrotecnica-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolò\Documents\GitHub\ProgettoCarlo\ProgettoMatlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF242E0-145B-4903-B5D4-55950DF7A351}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8B5E3-09F5-47CA-B60C-30A8EB41611E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,17 @@
     <sheet name="Inserimento dati" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle di servizio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Settore</t>
   </si>
@@ -170,12 +179,6 @@
   </si>
   <si>
     <t>Dettagli del ranking</t>
-  </si>
-  <si>
-    <t>0924090X</t>
-  </si>
-  <si>
-    <t>1553524X</t>
   </si>
   <si>
     <t>11566/286579</t>
@@ -200,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -245,6 +248,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -618,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,23 +750,26 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1172,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="46"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1181,7 +1194,7 @@
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -1219,15 +1232,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
-        <v>9410643</v>
-      </c>
+      <c r="A10" s="51"/>
       <c r="B10" s="41" t="s">
         <v>40</v>
       </c>
@@ -1246,10 +1257,8 @@
       <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1267,9 +1276,7 @@
       <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>49</v>
-      </c>
+      <c r="A12" s="51"/>
       <c r="B12" s="41" t="s">
         <v>42</v>
       </c>
@@ -1288,9 +1295,7 @@
       <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <v>22277390</v>
-      </c>
+      <c r="A13" s="51"/>
       <c r="B13" s="41" t="s">
         <v>43</v>
       </c>
@@ -1309,9 +1314,7 @@
       <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
-        <v>22277390</v>
-      </c>
+      <c r="A14" s="51"/>
       <c r="B14" s="41" t="s">
         <v>44</v>
       </c>
@@ -1330,11 +1333,9 @@
       <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <v>10957138</v>
-      </c>
+      <c r="A15" s="51"/>
       <c r="B15" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>6</v>
@@ -1351,11 +1352,9 @@
       <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <v>19326203</v>
-      </c>
+      <c r="A16" s="51"/>
       <c r="B16" s="41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>6</v>
@@ -1372,11 +1371,9 @@
       <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <v>10769757</v>
-      </c>
+      <c r="A17" s="51"/>
       <c r="B17" s="41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>6</v>
@@ -1393,11 +1390,9 @@
       <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45">
-        <v>17518644</v>
-      </c>
+      <c r="A18" s="51"/>
       <c r="B18" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>6</v>
@@ -1427,44 +1422,44 @@
       <c r="B23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
